--- a/normativa/Anexos/L05T02C03/L05T02C03A25b.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A25b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="663"/>
+    <workbookView xWindow="240" yWindow="170" windowWidth="14810" windowHeight="7950" tabRatio="663"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo 25b" sheetId="5" r:id="rId1"/>
@@ -106,14 +106,14 @@
     <t xml:space="preserve">(3) Detallar las acciones correctivas a  implementar para evitar el incumplimiento de las proyecciones realizadas. </t>
   </si>
   <si>
-    <t xml:space="preserve">Nota: En el reporte correspondiente a la gestión 2023, los campos: “Proyecciones de uso para la colocación de créditos – Gestión pasada”, “Grado de cumplimiento de las proyecciones realizadas en la gestión pasada” y “Acciones correctivas”, se debe remitir con el texto “No aplica”. </t>
+    <t>Nota: En caso de que la gestión pasada corresponda al año de la creación del Fondo, los campos: “Proyecciones de uso para la colocación de créditos – Gestión pasada”, “Grado de cumplimiento de las proyecciones realizadas en la gestión pasada” y “Acciones correctivas”, se deben remitir con el texto “No aplica”.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,11 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -338,7 +343,7 @@
     <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -362,6 +367,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -374,7 +384,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -666,26 +676,26 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
-    <col min="9" max="11" width="14.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="1" width="3.1796875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="14.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -700,7 +710,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -716,7 +726,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
@@ -733,7 +743,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -748,7 +758,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -763,7 +773,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
@@ -780,7 +790,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -797,7 +807,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -812,7 +822,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -827,7 +837,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -856,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -879,7 +889,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -910,7 +920,7 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -927,7 +937,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -942,7 +952,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -957,7 +967,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -972,7 +982,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -987,7 +997,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1002,7 +1012,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1017,7 +1027,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1032,7 +1042,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1047,7 +1057,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1062,7 +1072,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1077,7 +1087,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1092,7 +1102,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1107,7 +1117,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1122,7 +1132,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1137,7 +1147,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1152,7 +1162,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1167,7 +1177,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1182,7 +1192,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1197,7 +1207,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1212,7 +1222,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1227,7 +1237,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1242,7 +1252,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1257,7 +1267,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1284,7 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1301,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1318,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1323,7 +1333,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +1350,7 @@
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1355,7 +1365,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="23" t="s">
@@ -1373,7 +1383,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D43" s="23"/>
       <c r="E43" s="29" t="s">
         <v>5</v>
@@ -1387,14 +1397,14 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -1409,7 +1419,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -1424,7 +1434,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1439,7 +1449,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1454,7 +1464,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1469,7 +1479,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1484,7 +1494,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1499,7 +1509,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1514,7 +1524,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1529,7 +1539,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1544,7 +1554,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1559,7 +1569,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
@@ -1584,13 +1594,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
-Circular ASFI/785/2023 (Inicial)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Circular ASFI/833/2024 (Última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 25b

--- a/normativa/Anexos/L05T02C03/L05T02C03A25b.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A25b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="170" windowWidth="14810" windowHeight="7950" tabRatio="663"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260" tabRatio="663"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo 25b" sheetId="5" r:id="rId1"/>
@@ -106,7 +106,9 @@
     <t xml:space="preserve">(3) Detallar las acciones correctivas a  implementar para evitar el incumplimiento de las proyecciones realizadas. </t>
   </si>
   <si>
-    <t>Nota: En caso de que la gestión pasada corresponda al año de la creación del Fondo, los campos: “Proyecciones de uso para la colocación de créditos – Gestión pasada”, “Grado de cumplimiento de las proyecciones realizadas en la gestión pasada” y “Acciones correctivas”, se deben remitir con el texto “No aplica”.</t>
+    <t xml:space="preserve">Notas: 
+1. En caso de que la gestión pasada corresponda al año de la creación del Fondo, los campos: “Proyecciones de uso para la colocación de créditos – Gestión pasada”, “Grado de cumplimiento de las proyecciones realizadas en la gestión pasada” y “Acciones correctivas”, se deben remitir con el texto “No aplica”.
+2. Se debe incluir la información de los créditos otorgados con recursos del Fondo de Garantía de Créditos para el Sector Gremial. </t>
   </si>
 </sst>
 </file>
@@ -182,12 +184,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -277,7 +291,7 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,6 +348,7 @@
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -343,9 +358,6 @@
     <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -357,6 +369,9 @@
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -384,7 +399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,26 +691,26 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="14.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="3.7265625" style="2"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="11" width="14.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="3.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -710,7 +725,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -726,7 +741,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
@@ -743,7 +758,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -758,7 +773,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -773,7 +788,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
@@ -790,7 +805,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -807,7 +822,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -822,7 +837,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -837,7 +852,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
@@ -866,7 +881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -889,7 +904,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -920,7 +935,7 @@
       </c>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -937,7 +952,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -952,7 +967,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -967,7 +982,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -982,7 +997,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -997,7 +1012,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1012,7 +1027,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1027,7 +1042,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1042,7 +1057,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1057,7 +1072,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1072,7 +1087,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1087,7 +1102,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1102,7 +1117,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1117,7 +1132,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1132,7 +1147,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1147,7 +1162,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1162,7 +1177,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1177,7 +1192,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1192,7 +1207,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1207,7 +1222,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1222,7 +1237,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1237,7 +1252,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1252,7 +1267,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -1267,7 +1282,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1299,7 @@
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>23</v>
       </c>
@@ -1301,7 +1316,7 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>26</v>
       </c>
@@ -1318,7 +1333,7 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1333,24 +1348,24 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+    <row r="40" spans="1:13" s="28" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1365,16 +1380,16 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="28"/>
+      <c r="F42" s="29"/>
       <c r="I42" s="22" t="s">
         <v>4</v>
       </c>
@@ -1383,12 +1398,12 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D43" s="23"/>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="31"/>
       <c r="I43" s="22" t="s">
         <v>0</v>
       </c>
@@ -1397,14 +1412,14 @@
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -1419,7 +1434,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="24"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -1434,7 +1449,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1449,7 +1464,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1464,7 +1479,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1479,7 +1494,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1494,7 +1509,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1509,7 +1524,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1524,7 +1539,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1539,7 +1554,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1554,7 +1569,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1569,7 +1584,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
@@ -1594,13 +1609,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
-Circular ASFI/833/2024 (Última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+Circular ASFI/854/2025 (Última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 25b
